--- a/Dashboards/SENTRY.xlsx
+++ b/Dashboards/SENTRY.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -76,6 +76,12 @@
     <x:t>The Titan</x:t>
   </x:si>
   <x:si>
+    <x:t>Austzilla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JustLeo</x:t>
+  </x:si>
+  <x:si>
     <x:t>Lightning dude</x:t>
   </x:si>
   <x:si>
@@ -172,9 +178,6 @@
     <x:t>Erin diamond</x:t>
   </x:si>
   <x:si>
-    <x:t>Austzilla</x:t>
-  </x:si>
-  <x:si>
     <x:t>R3venge</x:t>
   </x:si>
   <x:si>
@@ -184,9 +187,6 @@
     <x:t>klc</x:t>
   </x:si>
   <x:si>
-    <x:t>JustLeo</x:t>
-  </x:si>
-  <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
@@ -214,7 +214,7 @@
     <x:t>2,0 (8/4)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,0 (993/509)</x:t>
+    <x:t>1,9 (1001/517)</x:t>
   </x:si>
   <x:si>
     <x:t>2,3 (21/9)</x:t>
@@ -253,13 +253,16 @@
     <x:t>1,6 (63/39)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,3 (29/23)</x:t>
+    <x:t>1,2 (37/31)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (45/32)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2 (445/364)</x:t>
+    <x:t>1,4 (7/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (473/380)</x:t>
   </x:si>
   <x:si>
     <x:t>2,1 (52/25)</x:t>
@@ -295,6 +298,9 @@
     <x:t>1,8 (11/6)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,8 (28/16)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,2 (177/149)</x:t>
   </x:si>
   <x:si>
@@ -320,6 +326,9 @@
   </x:si>
   <x:si>
     <x:t>0,6 (21/37)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6 (24/39)</x:t>
   </x:si>
   <x:si>
     <x:t>0,6 (12/20)</x:t>
@@ -808,10 +817,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>3206.99829464284</x:v>
+        <x:v>3219.58175892856</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>317760.817416666</x:v>
+        <x:v>317936.985916666</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
         <x:v>651.375208333309</x:v>
@@ -853,7 +862,7 @@
         <x:v>1995.56379166659</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>737.74133333331</x:v>
+        <x:v>913.90983333328</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -861,10 +870,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>1183.07554761904</x:v>
+        <x:v>1261.34999999999</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>183800.297916666</x:v>
+        <x:v>184896.14025</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
         <x:v>1339.30208333328</x:v>
@@ -906,7 +915,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1095.84233333333</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1098,10 +1107,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>60.5415833333335</x:v>
+        <x:v>287.676875000001</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>24892.0886249999</x:v>
+        <x:v>20304.9771458333</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s"/>
       <x:c r="F8" s="16" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R8" s="16" t="n">
-        <x:v>121.083166666667</x:v>
+        <x:v>575.353750000002</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1127,52 +1136,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>14.8106785714315</x:v>
+        <x:v>94.5673333333398</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>191887.466041667</x:v>
-      </x:c>
-      <x:c r="E9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J9" s="16" t="n">
-        <x:v>157.11533333335</x:v>
-      </x:c>
-      <x:c r="K9" s="16" t="n">
-        <x:v>50.2341666666907</x:v>
-      </x:c>
-      <x:c r="L9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>114853.430604166</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s"/>
+      <x:c r="F9" s="16" t="s"/>
+      <x:c r="G9" s="16" t="s"/>
+      <x:c r="H9" s="16" t="s"/>
+      <x:c r="I9" s="16" t="s"/>
+      <x:c r="J9" s="16" t="s"/>
+      <x:c r="K9" s="16" t="s"/>
+      <x:c r="L9" s="16" t="s"/>
+      <x:c r="M9" s="16" t="s"/>
+      <x:c r="N9" s="16" t="s"/>
+      <x:c r="O9" s="16" t="s"/>
+      <x:c r="P9" s="16" t="s"/>
+      <x:c r="Q9" s="16" t="s"/>
       <x:c r="R9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>94.5673333333398</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1180,52 +1163,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>9.09915476190512</x:v>
+        <x:v>60.5415833333335</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>108229.69775</x:v>
-      </x:c>
-      <x:c r="E10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K10" s="16" t="n">
-        <x:v>5.08983333333163</x:v>
-      </x:c>
-      <x:c r="L10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N10" s="16" t="n">
-        <x:v>122.29833333334</x:v>
-      </x:c>
-      <x:c r="O10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>24892.0886249999</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s"/>
+      <x:c r="F10" s="16" t="s"/>
+      <x:c r="G10" s="16" t="s"/>
+      <x:c r="H10" s="16" t="s"/>
+      <x:c r="I10" s="16" t="s"/>
+      <x:c r="J10" s="16" t="s"/>
+      <x:c r="K10" s="16" t="s"/>
+      <x:c r="L10" s="16" t="s"/>
+      <x:c r="M10" s="16" t="s"/>
+      <x:c r="N10" s="16" t="s"/>
+      <x:c r="O10" s="16" t="s"/>
+      <x:c r="P10" s="16" t="s"/>
       <x:c r="Q10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>121.083166666667</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1233,16 +1192,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>8.887</x:v>
+        <x:v>14.8106785714315</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>39320.1366666667</x:v>
+        <x:v>191887.466041667</x:v>
       </x:c>
       <x:c r="E11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F11" s="16" t="n">
-        <x:v>106.644</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="16" t="n">
         <x:v>0</x:v>
@@ -1254,10 +1213,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J11" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>157.11533333335</x:v>
       </x:c>
       <x:c r="K11" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>50.2341666666907</x:v>
       </x:c>
       <x:c r="L11" s="16" t="n">
         <x:v>0</x:v>
@@ -1274,49 +1233,81 @@
       <x:c r="P11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q11" s="16" t="s"/>
-      <x:c r="R11" s="16" t="s"/>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>9.09915476190512</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>335631.830375</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="s"/>
-      <x:c r="F12" s="16" t="s"/>
-      <x:c r="G12" s="16" t="s"/>
-      <x:c r="H12" s="16" t="s"/>
-      <x:c r="I12" s="16" t="s"/>
-      <x:c r="J12" s="16" t="s"/>
-      <x:c r="K12" s="16" t="s"/>
-      <x:c r="L12" s="16" t="s"/>
-      <x:c r="M12" s="16" t="s"/>
-      <x:c r="N12" s="16" t="s"/>
-      <x:c r="O12" s="16" t="s"/>
-      <x:c r="P12" s="16" t="s"/>
-      <x:c r="Q12" s="16" t="s"/>
-      <x:c r="R12" s="16" t="s"/>
+        <x:v>108229.69775</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K12" s="16" t="n">
+        <x:v>5.08983333333163</x:v>
+      </x:c>
+      <x:c r="L12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N12" s="16" t="n">
+        <x:v>122.29833333334</x:v>
+      </x:c>
+      <x:c r="O12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>8.887</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>618998.448708333</x:v>
+        <x:v>39320.1366666667</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>106.644</x:v>
       </x:c>
       <x:c r="G13" s="16" t="n">
         <x:v>0</x:v>
@@ -1348,12 +1339,8 @@
       <x:c r="P13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
       <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
@@ -1364,44 +1351,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>264800.470791666</x:v>
-      </x:c>
-      <x:c r="E14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>335631.830375</x:v>
+      </x:c>
+      <x:c r="E14" s="16" t="s"/>
+      <x:c r="F14" s="16" t="s"/>
+      <x:c r="G14" s="16" t="s"/>
+      <x:c r="H14" s="16" t="s"/>
+      <x:c r="I14" s="16" t="s"/>
+      <x:c r="J14" s="16" t="s"/>
+      <x:c r="K14" s="16" t="s"/>
+      <x:c r="L14" s="16" t="s"/>
+      <x:c r="M14" s="16" t="s"/>
+      <x:c r="N14" s="16" t="s"/>
+      <x:c r="O14" s="16" t="s"/>
+      <x:c r="P14" s="16" t="s"/>
       <x:c r="Q14" s="16" t="s"/>
       <x:c r="R14" s="16" t="s"/>
       <x:c r="AB14" s="16" t="s"/>
@@ -1417,22 +1380,50 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>288474.408208333</x:v>
-      </x:c>
-      <x:c r="E15" s="16" t="s"/>
-      <x:c r="F15" s="16" t="s"/>
-      <x:c r="G15" s="16" t="s"/>
-      <x:c r="H15" s="16" t="s"/>
-      <x:c r="I15" s="16" t="s"/>
-      <x:c r="J15" s="16" t="s"/>
-      <x:c r="K15" s="16" t="s"/>
-      <x:c r="L15" s="16" t="s"/>
-      <x:c r="M15" s="16" t="s"/>
-      <x:c r="N15" s="16" t="s"/>
-      <x:c r="O15" s="16" t="s"/>
-      <x:c r="P15" s="16" t="s"/>
-      <x:c r="Q15" s="16" t="s"/>
-      <x:c r="R15" s="16" t="s"/>
+        <x:v>618998.448708333</x:v>
+      </x:c>
+      <x:c r="E15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
@@ -1442,20 +1433,44 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>60920.6880833333</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="s"/>
-      <x:c r="F16" s="16" t="s"/>
-      <x:c r="G16" s="16" t="s"/>
-      <x:c r="H16" s="16" t="s"/>
-      <x:c r="I16" s="16" t="s"/>
-      <x:c r="J16" s="16" t="s"/>
-      <x:c r="K16" s="16" t="s"/>
-      <x:c r="L16" s="16" t="s"/>
-      <x:c r="M16" s="16" t="s"/>
-      <x:c r="N16" s="16" t="s"/>
-      <x:c r="O16" s="16" t="s"/>
-      <x:c r="P16" s="16" t="s"/>
+        <x:v>264800.470791666</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="Q16" s="16" t="s"/>
       <x:c r="R16" s="16" t="s"/>
     </x:row>
@@ -1467,44 +1482,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>145825.142416667</x:v>
-      </x:c>
-      <x:c r="E17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>288474.408208333</x:v>
+      </x:c>
+      <x:c r="E17" s="16" t="s"/>
+      <x:c r="F17" s="16" t="s"/>
+      <x:c r="G17" s="16" t="s"/>
+      <x:c r="H17" s="16" t="s"/>
+      <x:c r="I17" s="16" t="s"/>
+      <x:c r="J17" s="16" t="s"/>
+      <x:c r="K17" s="16" t="s"/>
+      <x:c r="L17" s="16" t="s"/>
+      <x:c r="M17" s="16" t="s"/>
+      <x:c r="N17" s="16" t="s"/>
+      <x:c r="O17" s="16" t="s"/>
+      <x:c r="P17" s="16" t="s"/>
       <x:c r="Q17" s="16" t="s"/>
       <x:c r="R17" s="16" t="s"/>
     </x:row>
@@ -1516,7 +1507,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>221526.195125</x:v>
+        <x:v>60920.6880833333</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s"/>
       <x:c r="F18" s="16" t="s"/>
@@ -1541,20 +1532,44 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>266174.176833333</x:v>
-      </x:c>
-      <x:c r="E19" s="16" t="s"/>
-      <x:c r="F19" s="16" t="s"/>
-      <x:c r="G19" s="16" t="s"/>
-      <x:c r="H19" s="16" t="s"/>
-      <x:c r="I19" s="16" t="s"/>
-      <x:c r="J19" s="16" t="s"/>
-      <x:c r="K19" s="16" t="s"/>
-      <x:c r="L19" s="16" t="s"/>
-      <x:c r="M19" s="16" t="s"/>
-      <x:c r="N19" s="16" t="s"/>
-      <x:c r="O19" s="16" t="s"/>
-      <x:c r="P19" s="16" t="s"/>
+        <x:v>145825.142416667</x:v>
+      </x:c>
+      <x:c r="E19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="Q19" s="16" t="s"/>
       <x:c r="R19" s="16" t="s"/>
     </x:row>
@@ -1566,7 +1581,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>216543.0465</x:v>
+        <x:v>221526.195125</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s"/>
       <x:c r="F20" s="16" t="s"/>
@@ -1591,7 +1606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>102488.898708333</x:v>
+        <x:v>266174.176833333</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -1616,7 +1631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>211962.743458333</x:v>
+        <x:v>216543.0465</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s"/>
       <x:c r="F22" s="16" t="s"/>
@@ -1641,7 +1656,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>578344.698583332</x:v>
+        <x:v>102488.898708333</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s"/>
       <x:c r="F23" s="16" t="s"/>
@@ -1666,44 +1681,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>221157.529458333</x:v>
-      </x:c>
-      <x:c r="E24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>211962.743458333</x:v>
+      </x:c>
+      <x:c r="E24" s="16" t="s"/>
+      <x:c r="F24" s="16" t="s"/>
+      <x:c r="G24" s="16" t="s"/>
+      <x:c r="H24" s="16" t="s"/>
+      <x:c r="I24" s="16" t="s"/>
+      <x:c r="J24" s="16" t="s"/>
+      <x:c r="K24" s="16" t="s"/>
+      <x:c r="L24" s="16" t="s"/>
+      <x:c r="M24" s="16" t="s"/>
+      <x:c r="N24" s="16" t="s"/>
+      <x:c r="O24" s="16" t="s"/>
+      <x:c r="P24" s="16" t="s"/>
       <x:c r="Q24" s="16" t="s"/>
       <x:c r="R24" s="16" t="s"/>
     </x:row>
@@ -1715,7 +1706,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>215399.458958333</x:v>
+        <x:v>578344.698583332</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s"/>
       <x:c r="F25" s="16" t="s"/>
@@ -1740,20 +1731,44 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>86340.8476666666</x:v>
-      </x:c>
-      <x:c r="E26" s="16" t="s"/>
-      <x:c r="F26" s="16" t="s"/>
-      <x:c r="G26" s="16" t="s"/>
-      <x:c r="H26" s="16" t="s"/>
-      <x:c r="I26" s="16" t="s"/>
-      <x:c r="J26" s="16" t="s"/>
-      <x:c r="K26" s="16" t="s"/>
-      <x:c r="L26" s="16" t="s"/>
-      <x:c r="M26" s="16" t="s"/>
-      <x:c r="N26" s="16" t="s"/>
-      <x:c r="O26" s="16" t="s"/>
-      <x:c r="P26" s="16" t="s"/>
+        <x:v>221157.529458333</x:v>
+      </x:c>
+      <x:c r="E26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="Q26" s="16" t="s"/>
       <x:c r="R26" s="16" t="s"/>
     </x:row>
@@ -1765,7 +1780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>99631.5073333333</x:v>
+        <x:v>215399.458958333</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -1790,7 +1805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>45225.7472083333</x:v>
+        <x:v>86340.8476666666</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -1815,7 +1830,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>48457.688875</x:v>
+        <x:v>99631.5073333333</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
@@ -1840,7 +1855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>48289.9420833334</x:v>
+        <x:v>45225.7472083333</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s"/>
       <x:c r="F30" s="16" t="s"/>
@@ -1865,44 +1880,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>5775.06891666667</x:v>
-      </x:c>
-      <x:c r="E31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P31" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>48457.688875</x:v>
+      </x:c>
+      <x:c r="E31" s="16" t="s"/>
+      <x:c r="F31" s="16" t="s"/>
+      <x:c r="G31" s="16" t="s"/>
+      <x:c r="H31" s="16" t="s"/>
+      <x:c r="I31" s="16" t="s"/>
+      <x:c r="J31" s="16" t="s"/>
+      <x:c r="K31" s="16" t="s"/>
+      <x:c r="L31" s="16" t="s"/>
+      <x:c r="M31" s="16" t="s"/>
+      <x:c r="N31" s="16" t="s"/>
+      <x:c r="O31" s="16" t="s"/>
+      <x:c r="P31" s="16" t="s"/>
       <x:c r="Q31" s="16" t="s"/>
       <x:c r="R31" s="16" t="s"/>
     </x:row>
@@ -1914,7 +1905,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>24342.3356875</x:v>
+        <x:v>48289.9420833334</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -1939,7 +1930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>12982.4152916666</x:v>
+        <x:v>5775.06891666667</x:v>
       </x:c>
       <x:c r="E33" s="16" t="n">
         <x:v>0</x:v>
@@ -1988,44 +1979,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>109225.766895833</x:v>
-      </x:c>
-      <x:c r="E34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>24342.3356875</x:v>
+      </x:c>
+      <x:c r="E34" s="16" t="s"/>
+      <x:c r="F34" s="16" t="s"/>
+      <x:c r="G34" s="16" t="s"/>
+      <x:c r="H34" s="16" t="s"/>
+      <x:c r="I34" s="16" t="s"/>
+      <x:c r="J34" s="16" t="s"/>
+      <x:c r="K34" s="16" t="s"/>
+      <x:c r="L34" s="16" t="s"/>
+      <x:c r="M34" s="16" t="s"/>
+      <x:c r="N34" s="16" t="s"/>
+      <x:c r="O34" s="16" t="s"/>
+      <x:c r="P34" s="16" t="s"/>
       <x:c r="Q34" s="16" t="s"/>
       <x:c r="R34" s="16" t="s"/>
     </x:row>
@@ -2037,7 +2004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>144393.831270833</x:v>
+        <x:v>12982.4152916666</x:v>
       </x:c>
       <x:c r="E35" s="16" t="n">
         <x:v>0</x:v>
@@ -2086,28 +2053,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>134145.934020833</x:v>
-      </x:c>
-      <x:c r="E36" s="16" t="s"/>
-      <x:c r="F36" s="16" t="s"/>
-      <x:c r="G36" s="16" t="s"/>
-      <x:c r="H36" s="16" t="s"/>
-      <x:c r="I36" s="16" t="s"/>
-      <x:c r="J36" s="16" t="s"/>
-      <x:c r="K36" s="16" t="s"/>
-      <x:c r="L36" s="16" t="s"/>
-      <x:c r="M36" s="16" t="s"/>
-      <x:c r="N36" s="16" t="s"/>
-      <x:c r="O36" s="16" t="s"/>
+        <x:v>109225.766895833</x:v>
+      </x:c>
+      <x:c r="E36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="P36" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q36" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R36" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2117,28 +2102,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>12165.0140416667</x:v>
-      </x:c>
-      <x:c r="E37" s="16" t="s"/>
-      <x:c r="F37" s="16" t="s"/>
-      <x:c r="G37" s="16" t="s"/>
-      <x:c r="H37" s="16" t="s"/>
-      <x:c r="I37" s="16" t="s"/>
-      <x:c r="J37" s="16" t="s"/>
-      <x:c r="K37" s="16" t="s"/>
-      <x:c r="L37" s="16" t="s"/>
-      <x:c r="M37" s="16" t="s"/>
-      <x:c r="N37" s="16" t="s"/>
-      <x:c r="O37" s="16" t="s"/>
+        <x:v>144393.831270833</x:v>
+      </x:c>
+      <x:c r="E37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="P37" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q37" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R37" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -2148,7 +2151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>116046.65225</x:v>
+        <x:v>134145.934020833</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -2164,8 +2167,12 @@
       <x:c r="P38" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q38" s="16" t="s"/>
-      <x:c r="R38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R38" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2175,7 +2182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>2931.52437499999</x:v>
+        <x:v>12165.0140416667</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -2188,7 +2195,9 @@
       <x:c r="M39" s="16" t="s"/>
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
-      <x:c r="P39" s="16" t="s"/>
+      <x:c r="P39" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="Q39" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -2204,7 +2213,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>19729.6233958333</x:v>
+        <x:v>116046.65225</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2217,13 +2226,11 @@
       <x:c r="M40" s="16" t="s"/>
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
-      <x:c r="P40" s="16" t="s"/>
-      <x:c r="Q40" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R40" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P40" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -2233,7 +2240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="15" t="n">
-        <x:v>14318.4950833333</x:v>
+        <x:v>2931.52437499999</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s"/>
       <x:c r="F41" s="16" t="s"/>
@@ -2262,7 +2269,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>104853.840416667</x:v>
+        <x:v>14318.4950833333</x:v>
       </x:c>
       <x:c r="E42" s="16" t="s"/>
       <x:c r="F42" s="16" t="s"/>
@@ -2291,7 +2298,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="15" t="n">
-        <x:v>101697.011958333</x:v>
+        <x:v>104853.840416667</x:v>
       </x:c>
       <x:c r="E43" s="16" t="s"/>
       <x:c r="F43" s="16" t="s"/>
@@ -2320,7 +2327,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="15" t="n">
-        <x:v>114758.863270833</x:v>
+        <x:v>101697.011958333</x:v>
       </x:c>
       <x:c r="E44" s="16" t="s"/>
       <x:c r="F44" s="16" t="s"/>
@@ -2334,7 +2341,9 @@
       <x:c r="N44" s="16" t="s"/>
       <x:c r="O44" s="16" t="s"/>
       <x:c r="P44" s="16" t="s"/>
-      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="R44" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -2364,7 +2373,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="19.130625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="17.130625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="18.980625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="13.270625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="15.980625" style="0" customWidth="1"/>
     <x:col min="6" max="7" width="13.270625" style="0" customWidth="1"/>
@@ -2479,7 +2488,7 @@
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
         <x:v>52</x:v>
@@ -2529,7 +2538,7 @@
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
         <x:v>54</x:v>
@@ -2679,234 +2688,234 @@
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D8" s="19" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E8" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F8" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G8" s="19" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H8" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I8" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J8" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="K8" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L8" s="19" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="M8" s="19" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N8" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O8" s="19" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D8" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E8" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F8" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="K8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L8" s="19" t="s">
+      <x:c r="P8" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q8" s="19" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="M8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="N8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="O8" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P8" s="19" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="Q8" s="19" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D9" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E9" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F9" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G9" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I9" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J9" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K9" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L9" s="19" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="J9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="K9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="L9" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O10" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P10" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q10" s="19" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="G10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I10" s="19" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="J10" s="19" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="K10" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="L10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="M10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="N10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="O10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P10" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="Q10" s="19" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D11" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E11" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F11" s="19" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G11" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H11" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I11" s="19" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="J11" s="19" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D11" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E11" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F11" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G11" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H11" s="19" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I11" s="19" t="s">
+      <x:c r="K11" s="19" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="J11" s="19" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K11" s="19" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
         <x:v>48</x:v>
@@ -2929,10 +2938,10 @@
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>48</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
         <x:v>53</x:v>
@@ -2971,18 +2980,18 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>48</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
         <x:v>48</x:v>
@@ -3000,10 +3009,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
         <x:v>48</x:v>
@@ -3035,40 +3044,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
         <x:v>53</x:v>
@@ -3085,46 +3094,46 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -3135,40 +3144,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
         <x:v>53</x:v>
@@ -3185,40 +3194,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
         <x:v>53</x:v>
@@ -3285,40 +3294,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
         <x:v>53</x:v>
@@ -3535,40 +3544,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
         <x:v>53</x:v>
@@ -3635,40 +3644,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
         <x:v>53</x:v>
@@ -3885,40 +3894,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
         <x:v>53</x:v>
@@ -4035,40 +4044,40 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
         <x:v>53</x:v>
@@ -4135,46 +4144,46 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -4185,46 +4194,46 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -4271,10 +4280,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -4318,7 +4327,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
         <x:v>48</x:v>
@@ -4368,13 +4377,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -4571,7 +4580,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
         <x:v>48</x:v>
